--- a/Policy note/interest.USA.xlsx
+++ b/Policy note/interest.USA.xlsx
@@ -546,7 +546,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>915409498421.3593</v>
+        <v>209868000000</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -554,7 +554,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>973930891326.9263</v>
+        <v>235584000000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -562,7 +562,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1015939282582.84</v>
+        <v>261044000000</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -570,7 +570,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1150697754144.289</v>
+        <v>316448000000</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -578,7 +578,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>1228329484826.648</v>
+        <v>365824000000</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -586,7 +586,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>1324456140531.437</v>
+        <v>430116000000</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -594,7 +594,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>1500895655299.286</v>
+        <v>533716000000</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -602,7 +602,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1618119209420.921</v>
+        <v>610724000000</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -610,7 +610,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1703064574457.078</v>
+        <v>667884000000</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -618,7 +618,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>1907846531584.468</v>
+        <v>775308000000</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -626,7 +626,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>2039828966166.103</v>
+        <v>854968000000</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -634,7 +634,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>2097502691876.894</v>
+        <v>896816000000</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -642,7 +642,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>2120760918984.061</v>
+        <v>929260000000</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -650,7 +650,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>2186232444229.103</v>
+        <v>991660000000</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -658,7 +658,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>2288088725704.281</v>
+        <v>1078640000000</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -666,7 +666,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>2363729058223.135</v>
+        <v>1156184000000</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -674,7 +674,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>2407997060123.01</v>
+        <v>1217432000000</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -682,7 +682,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>2374086145517.442</v>
+        <v>1227548000000</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -690,7 +690,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>2353447318941.347</v>
+        <v>1245756000000</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -698,7 +698,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>2373414561614.808</v>
+        <v>1283360000000</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -706,7 +706,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>2552959667825.083</v>
+        <v>1409304000000</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -714,7 +714,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>2561762074631.573</v>
+        <v>1439952000000</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -722,7 +722,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>2557533384567.421</v>
+        <v>1462400000000</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -730,7 +730,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>2529043886983.026</v>
+        <v>1462276000000</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -738,7 +738,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>2402428576280.982</v>
+        <v>1408735000000</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -746,7 +746,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>2359570951850.646</v>
+        <v>1414913000000</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -754,7 +754,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>2160943797456.849</v>
+        <v>1324902000000</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -762,7 +762,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>1935279984491.002</v>
+        <v>1205085000000</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -770,7 +770,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>1837647692732.686</v>
+        <v>1166883000000</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -778,7 +778,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>1876986491161.394</v>
+        <v>1224088000000</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -786,7 +786,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>2047913251531.791</v>
+        <v>1377499000000</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -794,7 +794,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>2147187280970.381</v>
+        <v>1488848000000</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -802,7 +802,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>2291652440330.511</v>
+        <v>1631912000000</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -810,7 +810,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>2140758253881.738</v>
+        <v>1553590000000</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -818,7 +818,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>1941882972360.6</v>
+        <v>1418131000000</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -826,7 +826,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>2064164576896.694</v>
+        <v>1525949000000</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -834,7 +834,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>2255621489743.657</v>
+        <v>1701767000000</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -842,7 +842,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>2200054416133.22</v>
+        <v>1690496000000</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -850,7 +850,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>2130784264610.465</v>
+        <v>1665303000000</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -858,7 +858,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>2208900918419.545</v>
+        <v>1756369000000</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -866,7 +866,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>2139676376012.137</v>
+        <v>1717129000000</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -874,7 +874,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>2243028080944.062</v>
+        <v>1817214000000</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -882,7 +882,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>2312053563581.099</v>
+        <v>1906781000000</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -890,7 +890,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>2563079816847.134</v>
+        <v>2162517000000</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -898,7 +898,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>2692812079040.458</v>
+        <v>2309456000000</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -906,7 +906,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>2400336420993.935</v>
+        <v>2085548000000</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -914,7 +914,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>2527862065440.699</v>
+        <v>2298282000000</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -922,7 +922,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>2980064503662.382</v>
+        <v>2902750000000</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -930,7 +930,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>3757988148312.406</v>
+        <v>3790485000000</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -938,7 +938,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>1034144886995.189</v>
+        <v>1059235000000</v>
       </c>
     </row>
   </sheetData>

--- a/Policy note/interest.USA.xlsx
+++ b/Policy note/interest.USA.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
-    <t>inn_real</t>
+    <t>A091RC1Q027SBEA</t>
   </si>
   <si>
     <t>period</t>
@@ -546,7 +546,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>209868000000</v>
+        <v>20986.8</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -554,7 +554,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>235584000000</v>
+        <v>23558.4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -562,7 +562,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>261044000000</v>
+        <v>26104.4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -570,7 +570,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>316448000000</v>
+        <v>31644.8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -578,7 +578,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>365824000000</v>
+        <v>36582.4</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -586,7 +586,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>430116000000</v>
+        <v>43011.6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -594,7 +594,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>533716000000</v>
+        <v>53371.6</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -602,7 +602,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>610724000000</v>
+        <v>61072.4</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -610,7 +610,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>667884000000</v>
+        <v>66788.39999999999</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -618,7 +618,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>775308000000</v>
+        <v>77530.8</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -626,7 +626,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>854968000000</v>
+        <v>85496.8</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -634,7 +634,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>896816000000</v>
+        <v>89681.60000000001</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -642,7 +642,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>929260000000</v>
+        <v>92926</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -650,7 +650,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>991660000000</v>
+        <v>99166</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -658,7 +658,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>1078640000000</v>
+        <v>107864</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -666,7 +666,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>1156184000000</v>
+        <v>115618.4</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -674,7 +674,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>1217432000000</v>
+        <v>121743.2</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -682,7 +682,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>1227548000000</v>
+        <v>122754.8</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -690,7 +690,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>1245756000000</v>
+        <v>124575.6</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -698,7 +698,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>1283360000000</v>
+        <v>128336</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -706,7 +706,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>1409304000000</v>
+        <v>140930.4</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -714,7 +714,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>1439952000000</v>
+        <v>143995.2</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -722,7 +722,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>1462400000000</v>
+        <v>146240</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -730,7 +730,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>1462276000000</v>
+        <v>146227.6</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -738,7 +738,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>1408735000000</v>
+        <v>140873.5</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -746,7 +746,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>1414913000000</v>
+        <v>141491.3</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -754,7 +754,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>1324902000000</v>
+        <v>132490.2</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -762,7 +762,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>1205085000000</v>
+        <v>120508.5</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -770,7 +770,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>1166883000000</v>
+        <v>116688.3</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -778,7 +778,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>1224088000000</v>
+        <v>122408.8</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -786,7 +786,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>1377499000000</v>
+        <v>137749.9</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -794,7 +794,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>1488848000000</v>
+        <v>148884.8</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -802,7 +802,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>1631912000000</v>
+        <v>163191.2</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -810,7 +810,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>1553590000000</v>
+        <v>155359</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -818,7 +818,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>1418131000000</v>
+        <v>141813.1</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -826,7 +826,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>1525949000000</v>
+        <v>152594.9</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -834,7 +834,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>1701767000000</v>
+        <v>170176.7</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -842,7 +842,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>1690496000000</v>
+        <v>169049.6</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -850,7 +850,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>1665303000000</v>
+        <v>166530.3</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -858,7 +858,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>1756369000000</v>
+        <v>175636.9</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -866,7 +866,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>1717129000000</v>
+        <v>171712.9</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -874,7 +874,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>1817214000000</v>
+        <v>181721.4</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -882,7 +882,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>1906781000000</v>
+        <v>190678.1</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -890,7 +890,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>2162517000000</v>
+        <v>216251.7</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -898,7 +898,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>2309456000000</v>
+        <v>230945.6</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -906,7 +906,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>2085548000000</v>
+        <v>208554.8</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -914,7 +914,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>2298282000000</v>
+        <v>229828.2</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -922,7 +922,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>2902750000000</v>
+        <v>290275</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -930,7 +930,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>3790485000000</v>
+        <v>379048.5</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -938,7 +938,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>1059235000000</v>
+        <v>105923.5</v>
       </c>
     </row>
   </sheetData>
